--- a/src/main/resources/sum_app_notes.xlsx
+++ b/src/main/resources/sum_app_notes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="696">
   <si>
     <t>delete</t>
   </si>
@@ -1726,17 +1726,424 @@
   <si>
     <t>For 1985-2005 Mazda B-series 1 tonne models.</t>
   </si>
+  <si>
+    <t>235/60R/16 Original Tire Size</t>
+  </si>
+  <si>
+    <t>Aspiration: Naturally Aspirated</t>
+  </si>
+  <si>
+    <t>Aspiration: Turbocharged</t>
+  </si>
+  <si>
+    <t>Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Engine VIN: 3</t>
+  </si>
+  <si>
+    <t>Engine VIN: P</t>
+  </si>
+  <si>
+    <t>Except GM Brake code JD3</t>
+  </si>
+  <si>
+    <t>Except GM Brake code JD5</t>
+  </si>
+  <si>
+    <t>Except Tahoe Package</t>
+  </si>
+  <si>
+    <t>Fuel Type: DIESEL</t>
+  </si>
+  <si>
+    <t>Fuel Type: GAS</t>
+  </si>
+  <si>
+    <t>GM Brake Code JB1</t>
+  </si>
+  <si>
+    <t>GM Brake Code JB3</t>
+  </si>
+  <si>
+    <t>GM Brake Code JB5</t>
+  </si>
+  <si>
+    <t>GM Brake Code JB6</t>
+  </si>
+  <si>
+    <t>GM Brake Code JB7</t>
+  </si>
+  <si>
+    <t>GM Brake code JD3</t>
+  </si>
+  <si>
+    <t>GM Brake code JD5</t>
+  </si>
+  <si>
+    <t>GM Brake Code JD7</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2</t>
+  </si>
+  <si>
+    <t>Number of Doors: 3</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4</t>
+  </si>
+  <si>
+    <t>Problem Solver Design Features COATED FOR CORROSION RESISTANCE</t>
+  </si>
+  <si>
+    <t>Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>c/c/c/c</t>
+  </si>
+  <si>
+    <t>c/c/c/i</t>
+  </si>
+  <si>
+    <t>c/c/c/f</t>
+  </si>
+  <si>
+    <t>Aspiration: Naturally Aspirated, Number of Doors: 2</t>
+  </si>
+  <si>
+    <t>Aspiration: Naturally Aspirated, Number of Doors: 2, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Aspiration: Naturally Aspirated, Number of Doors: 2. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Aspiration: Naturally Aspirated, Number of Doors: 4, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Aspiration: Naturally Aspirated. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Aspiration: Naturally Aspirated. Superseded - Replaced by 6454B Neoprene Material</t>
+  </si>
+  <si>
+    <t>Aspiration: Turbocharged. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Engine VIN: 3. Problem Solver Design Features COATED FOR CORROSION RESISTANCE</t>
+  </si>
+  <si>
+    <t>Engine VIN: P. Problem Solver Design Features COATED FOR CORROSION RESISTANCE</t>
+  </si>
+  <si>
+    <t>Fuel Type: DIESEL. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Fuel Type: GAS. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Fuel Type: GAS. Except 4.56 Gear Ratio</t>
+  </si>
+  <si>
+    <t>Fuel Type: GAS. GM Brake Code JB1</t>
+  </si>
+  <si>
+    <t>Fuel Type: GAS. GM Brake Code JB7</t>
+  </si>
+  <si>
+    <t>Fuel Type: GAS. GM Brake Code JD7</t>
+  </si>
+  <si>
+    <t>Fuel Type: GAS. Problem Solver Design Features COATED FOR CORROSION RESISTANCE</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Delivery Sub Type: 1BBL</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Delivery Sub Type: 1BBL, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Delivery Sub Type: 1BBL. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Delivery Sub Type: 4BBL</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Delivery Sub Type: 4BBL. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Delivery Sub Type: MFI</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Delivery Sub Type: MFI, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: DIESEL</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: DIESEL, Transmission Number of Speeds: 3, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: DIESEL, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: DIESEL, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: DIESEL, Transmission Type: Transmission. Except Gypsy Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: DIESEL. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: DIESEL. Except Gypsy Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: GAS</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: GAS. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Fuel Type: GAS. Except Gypsy Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Number of Speeds: 3, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Number of Speeds: 3, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Number of Speeds: 3, Transmission Type: Transmission. Except Gypsy Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Number of Speeds: 3, Transmission Type: Transmission. Except Tahoe Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Number of Speeds: 4, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Type: Transaxle. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Type: Transmission. Except Gypsy Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2, Transmission Type: Transmission. Except Tahoe Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. 215/70R/16 Original Tire Size</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. Except EL Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. Except Gypsy Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. Except Tahoe Package</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. GM Brake Code JB6</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. GM Brake Code JB7</t>
+  </si>
+  <si>
+    <t>Number of Doors: 2. GM Brake Code JD6</t>
+  </si>
+  <si>
+    <t>Number of Doors: 3. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Delivery Sub Type: 1BBL, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Delivery Sub Type: MFI</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Delivery Sub Type: MFI, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Type: DIESEL</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Type: DIESEL, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Type: DIESEL, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Type: DIESEL. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Type: GAS</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Fuel Type: GAS. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Number of Speeds: 3, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Number of Speeds: 3, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Number of Speeds: 4, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Number of Speeds: 4, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Number of Speeds: 4, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Type: Transaxle</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Type: Transaxle. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4. 235/60R/16 Original Tire Size</t>
+  </si>
+  <si>
+    <t>Number of Doors: 4. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 3, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 3, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 3, Transmission Type: Transmission. Except Tahoe Package</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 4, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 4, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Transmission Type: Transaxle. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Transmission Type: Transmission. Except Tahoe Package</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 108.0, Number of Doors: 2</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 108.0, Number of Doors: 2, Fuel Type: GAS</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 108.0, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 112.0, Number of Doors: 2</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 112.0, Number of Doors: 2, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 112.0, Number of Doors: 2, Transmission Type: Transmission. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 112.0, Number of Doors: 2. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 114.0, Number of Doors: 2, Fuel Type: GAS, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 114.0, Transmission Type: Transmission</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 135.5, Number of Doors: 2</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 135.5, Number of Doors: 2. Constant Rate Spring</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 159.5, Number of Doors: 2</t>
+  </si>
+  <si>
+    <t>c/с</t>
+  </si>
+  <si>
+    <t>c/с/с</t>
+  </si>
+  <si>
+    <t>c/i</t>
+  </si>
+  <si>
+    <t>c/с/i</t>
+  </si>
+  <si>
+    <t>c/с/c</t>
+  </si>
+  <si>
+    <t>c/с/c/i</t>
+  </si>
+  <si>
+    <t>c/с/c/f</t>
+  </si>
+  <si>
+    <t>c/с/f</t>
+  </si>
+  <si>
+    <t>c/c/c</t>
+  </si>
+  <si>
+    <t>c/c</t>
+  </si>
+  <si>
+    <t>c/c/i</t>
+  </si>
+  <si>
+    <t>c/c/f</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2326,18 +2733,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2361,7 +2771,7 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2373,10 +2783,10 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,7 +2939,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2812,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B580"/>
+  <dimension ref="A1:B699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="B587" sqref="B587"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="A699" sqref="A699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7455,13 +7868,960 @@
         <v>561</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="68" t="s">
         <v>4</v>
       </c>
       <c r="B580" t="s">
         <v>562</v>
       </c>
+    </row>
+    <row r="581" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B581" s="70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B582" s="69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="B583" s="69" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="B584" s="69" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="70" t="s">
+        <v>687</v>
+      </c>
+      <c r="B585" s="69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="B586" s="69" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B587" s="69" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B588" s="69" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B589" s="70" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B590" s="69" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B591" s="70" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B592" s="70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B593" s="69" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B594" s="70" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B595" s="69" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B596" s="70" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B597" s="70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B598" s="70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B599" s="70" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B600" s="69" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B601" s="70" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B602" s="69" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B603" s="69" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B604" s="69" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B605" s="69" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B606" s="69" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B607" s="69" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B608" s="70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B609" s="70" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B610" s="70" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B611" s="70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B612" s="70" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B613" s="70" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B614" s="70" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B615" s="70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B616" s="70" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="B617" s="69" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="B618" s="69" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="70" t="s">
+        <v>687</v>
+      </c>
+      <c r="B619" s="69" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="B620" s="69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="70" t="s">
+        <v>687</v>
+      </c>
+      <c r="B621" s="69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="B622" s="69" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="70" t="s">
+        <v>688</v>
+      </c>
+      <c r="B623" s="69" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="B624" s="69" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="B625" s="69" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="70" t="s">
+        <v>688</v>
+      </c>
+      <c r="B626" s="69" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="70" t="s">
+        <v>689</v>
+      </c>
+      <c r="B627" s="69" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="70" t="s">
+        <v>690</v>
+      </c>
+      <c r="B628" s="69" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="70" t="s">
+        <v>687</v>
+      </c>
+      <c r="B629" s="69" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="B630" s="69" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="70" t="s">
+        <v>684</v>
+      </c>
+      <c r="B631" s="69" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="70" t="s">
+        <v>687</v>
+      </c>
+      <c r="B632" s="69" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="B633" s="69" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B634" s="69" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="70" t="s">
+        <v>589</v>
+      </c>
+      <c r="B635" s="69" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="70" t="s">
+        <v>590</v>
+      </c>
+      <c r="B636" s="69" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="70" t="s">
+        <v>590</v>
+      </c>
+      <c r="B637" s="69" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B638" s="69" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B639" s="69" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B640" s="69" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B641" s="69" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B642" s="69" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="B643" s="69" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="B644" s="69" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B645" s="69" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B646" s="69" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B647" s="69" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B648" s="69" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B649" s="69" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B650" s="69" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B651" s="69" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B652" s="69" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B653" s="70" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B654" s="69" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B655" s="70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B656" s="69" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B657" s="69" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B658" s="69" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B659" s="69" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B660" s="69" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="70" t="s">
+        <v>589</v>
+      </c>
+      <c r="B661" s="69" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B662" s="69" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B663" s="69" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B664" s="69" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B665" s="69" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="70" t="s">
+        <v>589</v>
+      </c>
+      <c r="B666" s="69" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B667" s="69" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B668" s="69" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="70" t="s">
+        <v>589</v>
+      </c>
+      <c r="B669" s="69" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B670" s="69" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B671" s="69" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B672" s="69" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B673" s="69" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B674" s="69" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B675" s="69" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B676" s="69" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B677" s="69" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B678" s="69" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="70" t="s">
+        <v>695</v>
+      </c>
+      <c r="B679" s="69" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B680" s="69" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B681" s="69" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B682" s="70" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B683" s="69" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B684" s="69" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B685" s="69" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B686" s="69" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B687" s="69" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B688" s="69" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B689" s="69" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B690" s="69" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="70" t="s">
+        <v>692</v>
+      </c>
+      <c r="B691" s="69" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="70" t="s">
+        <v>589</v>
+      </c>
+      <c r="B692" s="69" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B693" s="69" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="B694" s="69" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B695" s="69" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B696" s="69" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A697" s="70" t="s">
+        <v>694</v>
+      </c>
+      <c r="B697" s="69" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A698" s="70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B698" s="69" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A699" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B561"/>

--- a/src/main/resources/sum_app_notes.xlsx
+++ b/src/main/resources/sum_app_notes.xlsx
@@ -3225,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B699"/>
+  <dimension ref="A1:B698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="A699" sqref="A699"/>
+    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="J697" sqref="J697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8820,9 +8820,6 @@
         <v>683</v>
       </c>
     </row>
-    <row r="699" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A699" s="70"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B561"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/sum_app_notes.xlsx
+++ b/src/main/resources/sum_app_notes.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$B$698</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$B$696</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="789">
   <si>
     <t>delete</t>
   </si>
@@ -2125,17 +2127,338 @@
   <si>
     <t>c/c/f</t>
   </si>
+  <si>
+    <t>Constant 250KGS For Models w/Barn Door May Require Same Lift For Both Sides</t>
+  </si>
+  <si>
+    <t>Requires Anti Inversion Kit PN[FK08] If Greasable Shackles Are Not Fitted</t>
+  </si>
+  <si>
+    <t>For Models w/Barn Door May Require Same Lift For Both Sides</t>
+  </si>
+  <si>
+    <t>18mm sleeve ID</t>
+  </si>
+  <si>
+    <t>Drive Type: 4WD</t>
+  </si>
+  <si>
+    <t>Engine Version: Chevrolet</t>
+  </si>
+  <si>
+    <t>Engine Version: Duratec</t>
+  </si>
+  <si>
+    <t>Engine Version: EcoBoost</t>
+  </si>
+  <si>
+    <t>Engine Version: EcoDiesel</t>
+  </si>
+  <si>
+    <t>Engine Version: Ecotec</t>
+  </si>
+  <si>
+    <t>Engine Version: HEMI</t>
+  </si>
+  <si>
+    <t>Engine Version: i-Force</t>
+  </si>
+  <si>
+    <t>Engine Version: Lambda II</t>
+  </si>
+  <si>
+    <t>Engine Version: Magnum</t>
+  </si>
+  <si>
+    <t>Engine Version: N/R</t>
+  </si>
+  <si>
+    <t>Engine Version: Pentastar</t>
+  </si>
+  <si>
+    <t>Engine Version: Power-Stroke</t>
+  </si>
+  <si>
+    <t>Engine Version: Power-Tech</t>
+  </si>
+  <si>
+    <t>Engine Version: Theta II</t>
+  </si>
+  <si>
+    <t>Engine Version: Triton</t>
+  </si>
+  <si>
+    <t>Engine Version: U/K</t>
+  </si>
+  <si>
+    <t>Engine Version: Vortec</t>
+  </si>
+  <si>
+    <t>Engine Version: Zetec</t>
+  </si>
+  <si>
+    <t>For 1996-2006 Toyota Land Cruiser 78 series models</t>
+  </si>
+  <si>
+    <t>For 1996-2006 Toyota Land Cruiser 79 series models</t>
+  </si>
+  <si>
+    <t>For 1998-2007 Toyota Land Cruiser 100 series</t>
+  </si>
+  <si>
+    <t>For 1998-2007 Toyota Land Cruiser 105 series</t>
+  </si>
+  <si>
+    <t>For 1999-2017 Toyota Land Cruiser 78 and 79 Series double cab models</t>
+  </si>
+  <si>
+    <t>For 2010-17 Volkswagen Amarok models</t>
+  </si>
+  <si>
+    <t>For 2012-18 Isuzu D-Max models</t>
+  </si>
+  <si>
+    <t>For access and double cab models only</t>
+  </si>
+  <si>
+    <t>For Toyota Land Cruiser 40 series short wheelbase models</t>
+  </si>
+  <si>
+    <t>For Toyota Land Cruiser 42 series short wheelbase models</t>
+  </si>
+  <si>
+    <t>For Toyota Land Cruiser 45 series long wheelbase models</t>
+  </si>
+  <si>
+    <t>For Toyota Land Cruiser 47 series long wheelbase models</t>
+  </si>
+  <si>
+    <t>For use with 1987-97 Nissan Patrol Y60 ute and cab chassis models with leaf spring suspension</t>
+  </si>
+  <si>
+    <t>For use with 35mm spring eye and 15mm bushing ID</t>
+  </si>
+  <si>
+    <t>For use with 60 series Land Cruiser</t>
+  </si>
+  <si>
+    <t>For use with 70 and 73 series Land Cruiser</t>
+  </si>
+  <si>
+    <t>For use with 70 series Land Cruiser</t>
+  </si>
+  <si>
+    <t>For use with heavy duty springs</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 3</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 4</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 108.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 112.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 114.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 135.5</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 159.5</t>
+  </si>
+  <si>
+    <t>1.50 in.Lift models.</t>
+  </si>
+  <si>
+    <t>Fuel Delivery Sub Type: 1BBL</t>
+  </si>
+  <si>
+    <t>Fuel Delivery Sub Type: 4BBL</t>
+  </si>
+  <si>
+    <t>Fuel Delivery Sub Type: MFI</t>
+  </si>
+  <si>
+    <t>For use with 40 series Land Cruisers.</t>
+  </si>
+  <si>
+    <t>w/0.5 - 0.75 in.Lift</t>
+  </si>
+  <si>
+    <t>w/1.5 in.Lift</t>
+  </si>
+  <si>
+    <t>Includes Bar And Winch</t>
+  </si>
+  <si>
+    <t>Includes Bar Only</t>
+  </si>
+  <si>
+    <t>For 6-cylinder models.</t>
+  </si>
+  <si>
+    <t>For models with solid front axle suspension.</t>
+  </si>
+  <si>
+    <t>For use with OME springs and shackles.</t>
+  </si>
+  <si>
+    <t>For use with medium duty springs.</t>
+  </si>
+  <si>
+    <t>Use when fitting extra leaf spring.</t>
+  </si>
+  <si>
+    <t>For use with 25mm eyelet springs.</t>
+  </si>
+  <si>
+    <t>For use with 35mm eyelet springs.</t>
+  </si>
+  <si>
+    <t>For use with OME leaf springs only.</t>
+  </si>
+  <si>
+    <t>For use with 40 series Land Cruiser.</t>
+  </si>
+  <si>
+    <t>Includes Strut Bearing Plates; Bushings; Washers; Mounting Nuts Strut Top Hat Kit May Be Required If Original Equipment Is Worn</t>
+  </si>
+  <si>
+    <t>Superseded - Replaced by 6454B Neoprene Material</t>
+  </si>
+  <si>
+    <t>Except 4.56 Gear Ratio</t>
+  </si>
+  <si>
+    <t>Except Gypsy Package</t>
+  </si>
+  <si>
+    <t>215/70R/16 Original Tire Size</t>
+  </si>
+  <si>
+    <t>Except EL Package</t>
+  </si>
+  <si>
+    <t>GM Brake Code JD6</t>
+  </si>
+  <si>
+    <t>For Models w/OME Front Coils Requires OME Struts</t>
+  </si>
+  <si>
+    <t>Made Before 3/1990</t>
+  </si>
+  <si>
+    <t>Sold As Single Add One D27Xl Extra Leaf For Every 800lbs Carried Over 1200lbs</t>
+  </si>
+  <si>
+    <t>Sold As Single For Models w/Barn Door May Require Same Lift For Both Sides</t>
+  </si>
+  <si>
+    <t>Sold As Single Models From 04/1999</t>
+  </si>
+  <si>
+    <t>Sold As Single Requires PN[CS003F] When Bump Stop Heights Exceed 110mm</t>
+  </si>
+  <si>
+    <t>Trim Spacer PN[OME95PF5] Fitting To Drivers Side Front Strut Assembly</t>
+  </si>
+  <si>
+    <t>For Use w/Jeep WK2 Models For Models w/o Quadra Lift Air Suspension System</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Link kit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fits 2.5 in. lifts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Link kit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fits 3.5 in. lifts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Constant 200 KGS For Models w/Barn Door May Require Same Lift For Both Sides</t>
+  </si>
+  <si>
+    <t>Constant 200 KGS Requires Anti Inversion Kit PN[FK08] If Greasable Shackles Are Not Fitted</t>
+  </si>
+  <si>
+    <t>No Top Mounting Bushings And Dirt Shield Supplied Requires Re-Use OE</t>
+  </si>
+  <si>
+    <t>Strut Top Hat Kit May Be Required If Original Equipment Is Worn</t>
+  </si>
+  <si>
+    <t>KDSS Compatible</t>
+  </si>
+  <si>
+    <t>Requires PN[FK03] If The Spring Seats Are Distorted</t>
+  </si>
+  <si>
+    <t>Extra Leaf Can Be Fitted For Heavier Constant Load Carrying Ability</t>
+  </si>
+  <si>
+    <t>Springs Are Supplied W/Bushings</t>
+  </si>
+  <si>
+    <t>To Restore Positive Caster Angle PN[OMECW2] May Be Required</t>
+  </si>
+  <si>
+    <t>Set Ride Height To 1/3 Upper And 2/3 Lower Bumps Stop Clearance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2686,6 +3009,42 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2733,18 +3092,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2765,10 +3130,10 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,13 +3142,13 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2933,17 +3298,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3227,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="J697" sqref="J697"/>
+    <sheetView topLeftCell="A676" workbookViewId="0">
+      <selection sqref="A1:B698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5392,7 +5800,7 @@
       <c r="A270" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="71" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5764,7 +6172,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>4</v>
       </c>
@@ -8821,7 +9229,4731 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B561"/>
+  <autoFilter ref="A1:B698"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B696"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B699" sqref="B699"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="85" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="85" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="73" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="73" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="73" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="73" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="73" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="73" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="73" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="73" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="73" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="73" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="73" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="73" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="73" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="73" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="73" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="73" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" s="73" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="73" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="73" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="73" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="73" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="73" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B91" s="73" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="73" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="73" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="73" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="73" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="73" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="73" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="73" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="73" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="73" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="73" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="73" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="73" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="73" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="73" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="74" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="73" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="73" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="73" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="73" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="73" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="73" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="73" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="73" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="B129" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" s="73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="73" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="73" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="73" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="73" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" s="73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="73" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B213" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" s="73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" s="76" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="76" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="75" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="76" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" s="75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="77" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" s="73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="73" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" s="73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" s="73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" s="73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259" s="73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" s="73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="73" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" s="73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265" s="73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="73" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" s="73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" s="73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270" s="73" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" s="73" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" s="73" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274" s="73" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" s="73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" s="73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" s="73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" s="73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" s="73" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" s="73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281" s="73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" s="73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" s="73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285" s="73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" s="73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287" s="73" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" s="73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289" s="73" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290" s="73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" s="73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293" s="73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B295" s="73" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="73" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297" s="73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" s="73" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" s="73" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300" s="73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B301" s="73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="73" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B303" s="73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B305" s="73" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B306" s="73" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" s="73" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308" s="73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309" s="73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B310" s="73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B311" s="73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B312" s="73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B313" s="73" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B314" s="73" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B315" s="73" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B316" s="73" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" s="73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" s="73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319" s="73" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B320" s="73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B321" s="73" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B322" s="73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B323" s="73" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B324" s="73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B325" s="73" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B326" s="73" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B327" s="73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B328" s="73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" s="73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B330" s="73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B331" s="73" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B332" s="73" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B333" s="73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B334" s="73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B335" s="73" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B336" s="73" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B337" s="73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B338" s="73" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B339" s="73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B340" s="73" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B341" s="73" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B342" s="73" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B343" s="73" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B344" s="73" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B345" s="73" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B346" s="73" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B347" s="73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B348" s="73" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B349" s="73" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B350" s="77" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B351" s="73" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B352" s="73" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B353" s="73" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B354" s="73" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B355" s="73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B356" s="73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" s="73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" s="73" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" s="73" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" s="73" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" s="73" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" s="73" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B363" s="73" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B364" s="73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B365" s="73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B366" s="73" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B367" s="73" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B368" s="73" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B369" s="73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B370" s="73" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B371" s="73" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B372" s="73" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B373" s="73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" s="73" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B376" s="79" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B377" s="79" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" s="73" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" s="73" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" s="73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" s="73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B382" s="73" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B383" s="73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B384" s="73" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B385" s="73" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B387" s="73" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B388" s="73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B389" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B390" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B391" s="73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B392" s="73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B393" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B394" s="73" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B395" s="73" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B396" s="73" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B397" s="73" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B398" s="73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B399" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B400" s="73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B401" s="73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B402" s="73" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B403" s="73" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B404" s="73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B405" s="73" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B406" s="73" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B407" s="73" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B408" s="73" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B409" s="73" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B410" s="73" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B411" s="73" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B412" s="73" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B413" s="73" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B414" s="73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B415" s="73" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B416" s="73" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B417" s="73" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B418" s="73" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B419" s="73" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B420" s="73" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B421" s="73" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B422" s="73" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B423" s="73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B424" s="73" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B425" s="73" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B426" s="73" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B427" s="73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B428" s="73" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B429" s="73" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B430" s="73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="73" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B432" s="73" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B433" s="73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B434" s="73" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B435" s="73" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" s="73" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B437" s="73" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="73" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" s="73" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B440" s="73" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B441" s="73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B442" s="73" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B443" s="73" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" s="73" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B445" s="73" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B446" s="73" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B447" s="73" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B448" s="73" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B449" s="73" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B450" s="73" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B451" s="73" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B452" s="73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B453" s="73" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B454" s="73" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B455" s="73" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" s="77" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B457" s="73" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B458" s="73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B459" s="73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B460" s="73" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B461" s="73" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B462" s="73" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B463" s="73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464" s="73" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B465" s="73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B466" s="73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B467" s="73" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B468" s="73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B469" s="73" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B470" s="73" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B471" s="73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B472" s="73" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B473" s="77" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="73" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B475" s="73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A476" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B476" s="73" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A477" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B477" s="73" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A478" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B478" s="73" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A479" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B479" s="73" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A480" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B480" s="73" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A481" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B481" s="77" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A482" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B482" s="73" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A483" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B483" s="73" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A484" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B484" s="73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A485" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B485" s="73" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A486" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B486" s="73" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A487" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B487" s="73" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488" s="73" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A489" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489" s="73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B490" s="77" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A491" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B491" s="81" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A492" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B492" s="73" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B493" s="73" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B494" s="81" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A495" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B495" s="73" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A496" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B496" s="81" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A497" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B497" s="73" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A498" s="82"/>
+      <c r="B498" s="82"/>
+    </row>
+    <row r="499" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A499" s="82"/>
+      <c r="B499" s="82"/>
+    </row>
+    <row r="500" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="82"/>
+      <c r="B500" s="82"/>
+    </row>
+    <row r="501" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A501" s="82"/>
+      <c r="B501" s="82"/>
+    </row>
+    <row r="502" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A502" s="82"/>
+      <c r="B502" s="82"/>
+    </row>
+    <row r="503" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A503" s="82"/>
+      <c r="B503" s="82"/>
+    </row>
+    <row r="504" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A504" s="82"/>
+      <c r="B504" s="82"/>
+    </row>
+    <row r="505" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A505" s="82"/>
+      <c r="B505" s="82"/>
+    </row>
+    <row r="506" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A506" s="82"/>
+      <c r="B506" s="82"/>
+    </row>
+    <row r="507" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A507" s="82"/>
+      <c r="B507" s="82"/>
+    </row>
+    <row r="508" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A508" s="82"/>
+      <c r="B508" s="82"/>
+    </row>
+    <row r="509" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A509" s="83"/>
+      <c r="B509" s="84"/>
+    </row>
+    <row r="510" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A510" s="13"/>
+    </row>
+    <row r="511" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A511" s="82"/>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="14"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513" s="15"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514" s="16"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515" s="18"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516" s="19"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517" s="20"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518" s="21"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519" s="22"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520" s="23"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521" s="24"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522" s="24"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523" s="25"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524" s="25"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525" s="26"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526" s="27"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527" s="28"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528" s="28"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529" s="28"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530" s="29"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531" s="30"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532" s="31"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533" s="32"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534" s="33"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535" s="34"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536" s="35"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537" s="36"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538" s="37"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539" s="38"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540" s="39"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541" s="40"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542" s="41"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543" s="42"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544" s="43"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545" s="43"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546" s="44"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" s="44"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" s="44"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" s="44"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" s="45"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" s="46"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A552" s="47"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A553" s="48"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A554" s="49"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A555" s="50"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A556" s="51"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A557" s="52"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A558" s="53"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A559" s="54"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A560" s="55"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A561" s="56"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A562" s="57"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A563" s="58"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A564" s="59"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A565" s="60"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A566" s="61"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A567" s="62"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A568" s="62"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A569" s="62"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A570" s="63"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A571" s="64"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A572" s="65"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A573" s="66"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A574" s="66"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A575" s="67"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A576" s="67"/>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="67"/>
+    </row>
+    <row r="578" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A578" s="68"/>
+    </row>
+    <row r="579" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A579" s="86"/>
+      <c r="B579" s="86"/>
+    </row>
+    <row r="580" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A580" s="86"/>
+      <c r="B580" s="87"/>
+    </row>
+    <row r="581" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A581" s="86"/>
+      <c r="B581" s="87"/>
+    </row>
+    <row r="582" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A582" s="86"/>
+      <c r="B582" s="87"/>
+    </row>
+    <row r="583" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A583" s="86"/>
+      <c r="B583" s="87"/>
+    </row>
+    <row r="584" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A584" s="86"/>
+      <c r="B584" s="87"/>
+    </row>
+    <row r="585" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A585" s="86"/>
+      <c r="B585" s="87"/>
+    </row>
+    <row r="586" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A586" s="86"/>
+      <c r="B586" s="87"/>
+    </row>
+    <row r="587" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A587" s="86"/>
+      <c r="B587" s="86"/>
+    </row>
+    <row r="588" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A588" s="86"/>
+      <c r="B588" s="87"/>
+    </row>
+    <row r="589" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A589" s="86"/>
+      <c r="B589" s="86"/>
+    </row>
+    <row r="590" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A590" s="86"/>
+      <c r="B590" s="86"/>
+    </row>
+    <row r="591" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A591" s="86"/>
+      <c r="B591" s="87"/>
+    </row>
+    <row r="592" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A592" s="86"/>
+      <c r="B592" s="86"/>
+    </row>
+    <row r="593" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A593" s="86"/>
+      <c r="B593" s="87"/>
+    </row>
+    <row r="594" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A594" s="86"/>
+      <c r="B594" s="86"/>
+    </row>
+    <row r="595" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A595" s="86"/>
+      <c r="B595" s="86"/>
+    </row>
+    <row r="596" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A596" s="86"/>
+      <c r="B596" s="86"/>
+    </row>
+    <row r="597" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A597" s="86"/>
+      <c r="B597" s="86"/>
+    </row>
+    <row r="598" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A598" s="86"/>
+      <c r="B598" s="87"/>
+    </row>
+    <row r="599" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A599" s="86"/>
+      <c r="B599" s="86"/>
+    </row>
+    <row r="600" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A600" s="86"/>
+      <c r="B600" s="87"/>
+    </row>
+    <row r="601" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A601" s="86"/>
+      <c r="B601" s="87"/>
+    </row>
+    <row r="602" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A602" s="86"/>
+      <c r="B602" s="87"/>
+    </row>
+    <row r="603" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="86"/>
+      <c r="B603" s="87"/>
+    </row>
+    <row r="604" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="86"/>
+      <c r="B604" s="87"/>
+    </row>
+    <row r="605" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="86"/>
+      <c r="B605" s="87"/>
+    </row>
+    <row r="606" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="86"/>
+      <c r="B606" s="86"/>
+    </row>
+    <row r="607" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="86"/>
+      <c r="B607" s="86"/>
+    </row>
+    <row r="608" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="86"/>
+      <c r="B608" s="86"/>
+    </row>
+    <row r="609" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="86"/>
+      <c r="B609" s="86"/>
+    </row>
+    <row r="610" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A610" s="86"/>
+      <c r="B610" s="86"/>
+    </row>
+    <row r="611" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A611" s="86"/>
+      <c r="B611" s="86"/>
+    </row>
+    <row r="612" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A612" s="86"/>
+      <c r="B612" s="86"/>
+    </row>
+    <row r="613" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A613" s="86"/>
+      <c r="B613" s="86"/>
+    </row>
+    <row r="614" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A614" s="86"/>
+      <c r="B614" s="86"/>
+    </row>
+    <row r="615" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A615" s="86"/>
+      <c r="B615" s="87"/>
+    </row>
+    <row r="616" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A616" s="86"/>
+      <c r="B616" s="87"/>
+    </row>
+    <row r="617" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A617" s="86"/>
+      <c r="B617" s="87"/>
+    </row>
+    <row r="618" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A618" s="86"/>
+      <c r="B618" s="87"/>
+    </row>
+    <row r="619" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A619" s="86"/>
+      <c r="B619" s="87"/>
+    </row>
+    <row r="620" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A620" s="86"/>
+      <c r="B620" s="87"/>
+    </row>
+    <row r="621" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A621" s="86"/>
+      <c r="B621" s="87"/>
+    </row>
+    <row r="622" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A622" s="86"/>
+      <c r="B622" s="87"/>
+    </row>
+    <row r="623" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A623" s="86"/>
+      <c r="B623" s="87"/>
+    </row>
+    <row r="624" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A624" s="86"/>
+      <c r="B624" s="87"/>
+    </row>
+    <row r="625" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A625" s="86"/>
+      <c r="B625" s="87"/>
+    </row>
+    <row r="626" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A626" s="86"/>
+      <c r="B626" s="87"/>
+    </row>
+    <row r="627" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A627" s="86"/>
+      <c r="B627" s="87"/>
+    </row>
+    <row r="628" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A628" s="86"/>
+      <c r="B628" s="87"/>
+    </row>
+    <row r="629" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A629" s="86"/>
+      <c r="B629" s="87"/>
+    </row>
+    <row r="630" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A630" s="86"/>
+      <c r="B630" s="87"/>
+    </row>
+    <row r="631" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A631" s="86"/>
+      <c r="B631" s="87"/>
+    </row>
+    <row r="632" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A632" s="86"/>
+      <c r="B632" s="87"/>
+    </row>
+    <row r="633" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A633" s="86"/>
+      <c r="B633" s="87"/>
+    </row>
+    <row r="634" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A634" s="86"/>
+      <c r="B634" s="87"/>
+    </row>
+    <row r="635" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A635" s="86"/>
+      <c r="B635" s="87"/>
+    </row>
+    <row r="636" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A636" s="86"/>
+      <c r="B636" s="87"/>
+    </row>
+    <row r="637" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A637" s="86"/>
+      <c r="B637" s="87"/>
+    </row>
+    <row r="638" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A638" s="86"/>
+      <c r="B638" s="87"/>
+    </row>
+    <row r="639" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A639" s="86"/>
+      <c r="B639" s="87"/>
+    </row>
+    <row r="640" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A640" s="86"/>
+      <c r="B640" s="87"/>
+    </row>
+    <row r="641" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A641" s="86"/>
+      <c r="B641" s="87"/>
+    </row>
+    <row r="642" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A642" s="86"/>
+      <c r="B642" s="87"/>
+    </row>
+    <row r="643" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A643" s="86"/>
+      <c r="B643" s="87"/>
+    </row>
+    <row r="644" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A644" s="86"/>
+      <c r="B644" s="87"/>
+    </row>
+    <row r="645" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A645" s="86"/>
+      <c r="B645" s="87"/>
+    </row>
+    <row r="646" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A646" s="86"/>
+      <c r="B646" s="87"/>
+    </row>
+    <row r="647" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A647" s="86"/>
+      <c r="B647" s="87"/>
+    </row>
+    <row r="648" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A648" s="86"/>
+      <c r="B648" s="87"/>
+    </row>
+    <row r="649" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A649" s="86"/>
+      <c r="B649" s="87"/>
+    </row>
+    <row r="650" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A650" s="86"/>
+      <c r="B650" s="87"/>
+    </row>
+    <row r="651" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A651" s="86"/>
+      <c r="B651" s="86"/>
+    </row>
+    <row r="652" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A652" s="86"/>
+      <c r="B652" s="87"/>
+    </row>
+    <row r="653" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A653" s="86"/>
+      <c r="B653" s="86"/>
+    </row>
+    <row r="654" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A654" s="86"/>
+      <c r="B654" s="87"/>
+    </row>
+    <row r="655" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A655" s="86"/>
+      <c r="B655" s="87"/>
+    </row>
+    <row r="656" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A656" s="86"/>
+      <c r="B656" s="87"/>
+    </row>
+    <row r="657" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A657" s="86"/>
+      <c r="B657" s="87"/>
+    </row>
+    <row r="658" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A658" s="86"/>
+      <c r="B658" s="87"/>
+    </row>
+    <row r="659" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A659" s="86"/>
+      <c r="B659" s="87"/>
+    </row>
+    <row r="660" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A660" s="86"/>
+      <c r="B660" s="87"/>
+    </row>
+    <row r="661" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A661" s="86"/>
+      <c r="B661" s="87"/>
+    </row>
+    <row r="662" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A662" s="86"/>
+      <c r="B662" s="87"/>
+    </row>
+    <row r="663" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A663" s="86"/>
+      <c r="B663" s="87"/>
+    </row>
+    <row r="664" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A664" s="86"/>
+      <c r="B664" s="87"/>
+    </row>
+    <row r="665" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A665" s="86"/>
+      <c r="B665" s="87"/>
+    </row>
+    <row r="666" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A666" s="86"/>
+      <c r="B666" s="87"/>
+    </row>
+    <row r="667" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A667" s="86"/>
+      <c r="B667" s="87"/>
+    </row>
+    <row r="668" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A668" s="86"/>
+      <c r="B668" s="87"/>
+    </row>
+    <row r="669" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A669" s="86"/>
+      <c r="B669" s="87"/>
+    </row>
+    <row r="670" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A670" s="86"/>
+      <c r="B670" s="87"/>
+    </row>
+    <row r="671" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A671" s="86"/>
+      <c r="B671" s="87"/>
+    </row>
+    <row r="672" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A672" s="86"/>
+      <c r="B672" s="87"/>
+    </row>
+    <row r="673" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A673" s="86"/>
+      <c r="B673" s="87"/>
+    </row>
+    <row r="674" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A674" s="86"/>
+      <c r="B674" s="87"/>
+    </row>
+    <row r="675" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="86"/>
+      <c r="B675" s="87"/>
+    </row>
+    <row r="676" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="86"/>
+      <c r="B676" s="87"/>
+    </row>
+    <row r="677" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="86"/>
+      <c r="B677" s="87"/>
+    </row>
+    <row r="678" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="86"/>
+      <c r="B678" s="87"/>
+    </row>
+    <row r="679" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A679" s="86"/>
+      <c r="B679" s="87"/>
+    </row>
+    <row r="680" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A680" s="86"/>
+      <c r="B680" s="86"/>
+    </row>
+    <row r="681" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A681" s="86"/>
+      <c r="B681" s="87"/>
+    </row>
+    <row r="682" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A682" s="86"/>
+      <c r="B682" s="87"/>
+    </row>
+    <row r="683" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A683" s="86"/>
+      <c r="B683" s="87"/>
+    </row>
+    <row r="684" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A684" s="86"/>
+      <c r="B684" s="87"/>
+    </row>
+    <row r="685" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A685" s="86"/>
+      <c r="B685" s="87"/>
+    </row>
+    <row r="686" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A686" s="86"/>
+      <c r="B686" s="87"/>
+    </row>
+    <row r="687" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A687" s="86"/>
+      <c r="B687" s="87"/>
+    </row>
+    <row r="688" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A688" s="86"/>
+      <c r="B688" s="87"/>
+    </row>
+    <row r="689" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A689" s="86"/>
+      <c r="B689" s="87"/>
+    </row>
+    <row r="690" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A690" s="86"/>
+      <c r="B690" s="87"/>
+    </row>
+    <row r="691" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A691" s="86"/>
+      <c r="B691" s="87"/>
+    </row>
+    <row r="692" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A692" s="86"/>
+      <c r="B692" s="87"/>
+    </row>
+    <row r="693" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A693" s="86"/>
+      <c r="B693" s="87"/>
+    </row>
+    <row r="694" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A694" s="86"/>
+      <c r="B694" s="87"/>
+    </row>
+    <row r="695" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A695" s="86"/>
+      <c r="B695" s="87"/>
+    </row>
+    <row r="696" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A696" s="86"/>
+      <c r="B696" s="87"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B696"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/sum_app_notes.xlsx
+++ b/src/main/resources/sum_app_notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="830">
   <si>
     <t>delete</t>
   </si>
@@ -2431,6 +2431,129 @@
   </si>
   <si>
     <t>Set Ride Height To 1/3 Upper And 2/3 Lower Bumps Stop Clearance</t>
+  </si>
+  <si>
+    <t>5 Passenger</t>
+  </si>
+  <si>
+    <t>7 Passenger</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>Aspiration: Supercharged</t>
+  </si>
+  <si>
+    <t>Available while supplies last.</t>
+  </si>
+  <si>
+    <t>Brake ABS: Non-ABS</t>
+  </si>
+  <si>
+    <t>Cylinder Head Type: DOHC</t>
+  </si>
+  <si>
+    <t>Cylinder Head Type: SOHC</t>
+  </si>
+  <si>
+    <t>D15B7 SOHC</t>
+  </si>
+  <si>
+    <t>Except Limousine</t>
+  </si>
+  <si>
+    <t>Except Rallye Package</t>
+  </si>
+  <si>
+    <t>From 11/94</t>
+  </si>
+  <si>
+    <t>From 2/25/85</t>
+  </si>
+  <si>
+    <t>From 4/09</t>
+  </si>
+  <si>
+    <t>From 6/04</t>
+  </si>
+  <si>
+    <t>From 7/00</t>
+  </si>
+  <si>
+    <t>Fuel Delivery Sub Type: 2BBL</t>
+  </si>
+  <si>
+    <t>Fuel Type: FLEX</t>
+  </si>
+  <si>
+    <t>Hard Top</t>
+  </si>
+  <si>
+    <t>LK0 SOHC</t>
+  </si>
+  <si>
+    <t>LL0 DOHC</t>
+  </si>
+  <si>
+    <t>Number of Doors: 5</t>
+  </si>
+  <si>
+    <t>Pending Obsolencence</t>
+  </si>
+  <si>
+    <t>Pending Obsolescence</t>
+  </si>
+  <si>
+    <t>Ram 2500HD</t>
+  </si>
+  <si>
+    <t>Thru 1/1/86</t>
+  </si>
+  <si>
+    <t>Thru 2/24/85</t>
+  </si>
+  <si>
+    <t>Thru 5/04</t>
+  </si>
+  <si>
+    <t>Transmission Number of Speeds: 5</t>
+  </si>
+  <si>
+    <t>Valves Per Engine: 16</t>
+  </si>
+  <si>
+    <t>Valves Per Engine: 8</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 113.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 113.3</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 119.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 119.3</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 129.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 135.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 138.7</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 139.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 154.7</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 155.0</t>
   </si>
 </sst>
 </file>
@@ -9239,8 +9362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B699" sqref="B699"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="A498" sqref="A498:B544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13226,157 +13349,380 @@
       </c>
     </row>
     <row r="498" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A498" s="82"/>
-      <c r="B498" s="82"/>
+      <c r="A498" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B498" s="82" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="499" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A499" s="82"/>
-      <c r="B499" s="82"/>
+      <c r="A499" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B499" s="82" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="500" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A500" s="82"/>
-      <c r="B500" s="82"/>
+      <c r="A500" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B500" s="82" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="501" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A501" s="82"/>
-      <c r="B501" s="82"/>
+      <c r="A501" s="82" t="s">
+        <v>791</v>
+      </c>
+      <c r="B501" s="82" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="502" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A502" s="82"/>
-      <c r="B502" s="82"/>
+      <c r="A502" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B502" s="82" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="503" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="82"/>
-      <c r="B503" s="82"/>
+      <c r="A503" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B503" s="82" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="504" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A504" s="82"/>
-      <c r="B504" s="82"/>
+      <c r="A504" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B504" s="82" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="505" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A505" s="82"/>
-      <c r="B505" s="82"/>
+      <c r="A505" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B505" s="82" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="506" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A506" s="82"/>
-      <c r="B506" s="82"/>
+      <c r="A506" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B506" s="82" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="507" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A507" s="82"/>
-      <c r="B507" s="82"/>
+      <c r="A507" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B507" s="82" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="508" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="82"/>
-      <c r="B508" s="82"/>
+      <c r="A508" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B508" s="82" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="509" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A509" s="83"/>
-      <c r="B509" s="84"/>
+      <c r="A509" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B509" s="84" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="510" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A510" s="13"/>
+      <c r="A510" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B510" s="85" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="511" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A511" s="82"/>
+      <c r="A511" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B511" s="85" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="14"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A513" s="15"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A514" s="16"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A515" s="18"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A516" s="19"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A517" s="20"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A518" s="21"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A519" s="22"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A520" s="23"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A521" s="24"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A522" s="24"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A523" s="25"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A524" s="25"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A525" s="26"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A526" s="27"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A527" s="28"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A528" s="28"/>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A529" s="28"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A530" s="29"/>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A531" s="30"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A532" s="31"/>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A533" s="32"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A534" s="33"/>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A535" s="34"/>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A536" s="35"/>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A537" s="36"/>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A538" s="37"/>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A539" s="38"/>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A540" s="39"/>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A541" s="40"/>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A542" s="41"/>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A543" s="42"/>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A544" s="43"/>
+      <c r="A512" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B512" s="85" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B513" s="85" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B514" s="85" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B515" s="85" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B516" s="85" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B517" s="85" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B518" s="85" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B519" s="85" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B520" s="85" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B521" s="85" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B522" s="85" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B523" s="85" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B524" s="85" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B525" s="85" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B526" s="85" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B527" s="85" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B528" s="85" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B529" s="85" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B530" s="85" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B531" s="85" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B532" s="85" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B533" s="85" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B534" s="85" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B535" s="85" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B536" s="85" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B537" s="85" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B538" s="85" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B539" s="85" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B540" s="85" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B541" s="85" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B542" s="85" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B543" s="85" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B544" s="85" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="43"/>

--- a/src/main/resources/sum_app_notes.xlsx
+++ b/src/main/resources/sum_app_notes.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B541E3-CFAD-4BE9-9E23-FEF500E4D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="600">
   <si>
     <t>[Available While Supplies Last]</t>
   </si>
@@ -1682,17 +1681,193 @@
   <si>
     <t>Wheel Base US: 155.0</t>
   </si>
+  <si>
+    <t>10 Passenger</t>
+  </si>
+  <si>
+    <t>1st Digit Of Spring Code On Door Is N Or M</t>
+  </si>
+  <si>
+    <t>1st Digit Of Spring Code On Door Is S</t>
+  </si>
+  <si>
+    <t>1st Digit Of Spring Code On Door Is Y Or A</t>
+  </si>
+  <si>
+    <t>351M</t>
+  </si>
+  <si>
+    <t>351W</t>
+  </si>
+  <si>
+    <t>4 Passenger</t>
+  </si>
+  <si>
+    <t>6 Passenger</t>
+  </si>
+  <si>
+    <t>8 Passenger</t>
+  </si>
+  <si>
+    <t>9 Passenger</t>
+  </si>
+  <si>
+    <t>Commercial Chassis</t>
+  </si>
+  <si>
+    <t>Engine Version: Modified</t>
+  </si>
+  <si>
+    <t>Engine Version: Windsor</t>
+  </si>
+  <si>
+    <t>Except 9 Passenger</t>
+  </si>
+  <si>
+    <t>Except Trailering Package</t>
+  </si>
+  <si>
+    <t>For 1-1/2 in To 2 in Lift Due To Heavy Rear Loading</t>
+  </si>
+  <si>
+    <t>For 1-1/2" To 2" Lift Due To Constant Heavy Loading</t>
+  </si>
+  <si>
+    <t>For models without air conditioning.</t>
+  </si>
+  <si>
+    <t>From 1/2/86</t>
+  </si>
+  <si>
+    <t>From 3/95</t>
+  </si>
+  <si>
+    <t>From 5/7/65</t>
+  </si>
+  <si>
+    <t>Fuel Type: LPG</t>
+  </si>
+  <si>
+    <t>L27</t>
+  </si>
+  <si>
+    <t>L40 SOHC</t>
+  </si>
+  <si>
+    <t>L76</t>
+  </si>
+  <si>
+    <t>L78</t>
+  </si>
+  <si>
+    <t>L80</t>
+  </si>
+  <si>
+    <t>LD2</t>
+  </si>
+  <si>
+    <t>LG0</t>
+  </si>
+  <si>
+    <t>Rack &amp; Pinion Center Take-off Manual</t>
+  </si>
+  <si>
+    <t>Rack &amp; Pinion Center Take-off Power</t>
+  </si>
+  <si>
+    <t>Rear Wheel Drive</t>
+  </si>
+  <si>
+    <t>Steering System: Power</t>
+  </si>
+  <si>
+    <t>Steering Type: Rack</t>
+  </si>
+  <si>
+    <t>Thru 2/95</t>
+  </si>
+  <si>
+    <t>Thru 5/6/65</t>
+  </si>
+  <si>
+    <t>Transmission Manufacturer Code: C3</t>
+  </si>
+  <si>
+    <t>Transmission Manufacturer Code: C5</t>
+  </si>
+  <si>
+    <t>Transmission Manufacturer Code: Powerglide</t>
+  </si>
+  <si>
+    <t>Transmission Manufacturer Code: TurboGlide</t>
+  </si>
+  <si>
+    <t>Use To Minimize Lean If OEM Drivers Side Body Leans Down 1/2 in To 1 in More Than Passenger Side</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 109.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 109.6</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 117.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 120.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 124.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 127.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 127.6</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 133.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 137.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 138.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 145.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 160.5</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 160.8</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 165.0</t>
+  </si>
+  <si>
+    <t>Wheel Base US: 168.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2004,6 +2179,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2051,8 +2231,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2140,54 +2323,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA4C2F4"/>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA4C2F4"/>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2462,11 +2695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B544"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="B561" sqref="B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6827,8 +7060,468 @@
         <v>543</v>
       </c>
     </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B545" s="45" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B546" s="45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B547" s="45" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B548" s="45" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B549" s="45" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B550" s="45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B551" s="45" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B552" s="45" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B553" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B554" s="45" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B555" s="45" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B556" s="45" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B557" s="45" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B558" s="45" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B559" s="45" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B560" s="45" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B561" s="45" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B562" s="45" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B563" s="45" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B564" s="45" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B565" s="45" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B566" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B567" s="45" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B568" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B569" s="45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B570" s="45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B571" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B572" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B573" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B574" s="45" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B575" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B576" s="45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B577" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B578" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B579" s="45" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B580" s="45" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B581" s="45" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B582" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B583" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B584" s="45" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B585" s="45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B586" s="45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B587" s="45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B588" s="45" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B589" s="45" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B590" s="45" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B591" s="45" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B592" s="45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B593" s="45" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B594" s="45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B595" s="45" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B596" s="45" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B597" s="45" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B598" s="45" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B599" s="45" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B600" s="45" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="23"/>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" s="23"/>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" s="23"/>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" s="23"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B544" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:B544"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/sum_app_notes.xlsx
+++ b/src/main/resources/sum_app_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249A4658-BBFD-4124-BBDD-A4270AA8F515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7352E77-A2C2-4643-B54A-DDCFE2FEBC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2675,60 +2675,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2876,69 +2828,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3221,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
-      <selection activeCell="B862" sqref="B862:B865"/>
+    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
+      <selection activeCell="A814" sqref="A814:B865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9736,266 +9685,266 @@
       </c>
     </row>
     <row r="814" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A814" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B814" s="19" t="s">
+      <c r="A814" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B814" s="20" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A815" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B815" s="19" t="s">
+      <c r="A815" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B815" s="20" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A816" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B816" s="19" t="s">
+      <c r="A816" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B816" s="20" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A817" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B817" s="19" t="s">
+      <c r="A817" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B817" s="20" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A818" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B818" s="19" t="s">
+      <c r="A818" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B818" s="20" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A819" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B819" s="19" t="s">
+      <c r="A819" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B819" s="20" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A820" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B820" s="20" t="s">
+      <c r="A820" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B820" s="21" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="821" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A821" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B821" s="19" t="s">
+      <c r="A821" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B821" s="20" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A822" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B822" s="19" t="s">
+      <c r="A822" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B822" s="20" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="823" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A823" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B823" s="19" t="s">
+      <c r="A823" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B823" s="20" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A824" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B824" s="19" t="s">
+      <c r="A824" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B824" s="20" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A825" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B825" s="19" t="s">
+      <c r="A825" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B825" s="20" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A826" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B826" s="19" t="s">
+      <c r="A826" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B826" s="20" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A827" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B827" s="19" t="s">
+      <c r="A827" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B827" s="20" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A828" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B828" s="19" t="s">
+      <c r="A828" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B828" s="20" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A829" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B829" s="19" t="s">
+      <c r="A829" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B829" s="20" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A830" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B830" s="19" t="s">
+      <c r="A830" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B830" s="20" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A831" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B831" s="20" t="s">
+      <c r="A831" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B831" s="21" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A832" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B832" s="20" t="s">
+      <c r="A832" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B832" s="21" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A833" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B833" s="19" t="s">
+      <c r="A833" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B833" s="20" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A834" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B834" s="19" t="s">
+      <c r="A834" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B834" s="20" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A835" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B835" s="19" t="s">
+      <c r="A835" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B835" s="20" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A836" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B836" s="19" t="s">
+      <c r="A836" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B836" s="20" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A837" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B837" s="19" t="s">
+      <c r="A837" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B837" s="20" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A838" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B838" s="19" t="s">
+      <c r="A838" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B838" s="20" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A839" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B839" s="19" t="s">
+      <c r="A839" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B839" s="20" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A840" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B840" s="19" t="s">
+      <c r="A840" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B840" s="20" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A841" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B841" s="19" t="s">
+      <c r="A841" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B841" s="20" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A842" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B842" s="19" t="s">
+      <c r="A842" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B842" s="20" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A843" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B843" s="19" t="s">
+      <c r="A843" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B843" s="20" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A844" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B844" s="19" t="s">
+      <c r="A844" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B844" s="20" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A845" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B845" s="19" t="s">
+      <c r="A845" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B845" s="20" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A846" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B846" s="19" t="s">
+      <c r="A846" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B846" s="20" t="s">
         <v>845</v>
       </c>
     </row>
@@ -10003,7 +9952,7 @@
       <c r="A847" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B847" s="19" t="s">
+      <c r="B847" s="20" t="s">
         <v>846</v>
       </c>
     </row>
@@ -10011,143 +9960,143 @@
       <c r="A848" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B848" s="19" t="s">
+      <c r="B848" s="20" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A849" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B849" s="19" t="s">
+      <c r="A849" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B849" s="20" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A850" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B850" s="19" t="s">
+      <c r="A850" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B850" s="20" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A851" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B851" s="11" t="s">
+      <c r="A851" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B851" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A852" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B852" s="11" t="s">
+      <c r="A852" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B852" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A853" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B853" s="11" t="s">
+      <c r="A853" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B853" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A854" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B854" s="11" t="s">
+      <c r="A854" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B854" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A855" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B855" s="11" t="s">
+      <c r="A855" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B855" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A856" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B856" s="11" t="s">
+      <c r="A856" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B856" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A857" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B857" s="11" t="s">
+      <c r="A857" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B857" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A858" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B858" s="11" t="s">
+      <c r="A858" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B858" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A859" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B859" s="11" t="s">
+      <c r="A859" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B859" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A860" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B860" s="11" t="s">
+      <c r="A860" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B860" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A861" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B861" s="11" t="s">
+      <c r="A861" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B861" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A862" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B862" s="11" t="s">
+      <c r="A862" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B862" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A863" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B863" s="11" t="s">
+      <c r="A863" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B863" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A864" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B864" s="11" t="s">
+      <c r="A864" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B864" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A865" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B865" s="11" t="s">
+      <c r="A865" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B865" t="s">
         <v>863</v>
       </c>
     </row>

--- a/src/main/resources/sum_app_notes.xlsx
+++ b/src/main/resources/sum_app_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB870F0-4537-4EF7-95C6-2ECDA736CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA365E5-949D-4CEF-9860-6CB04E10095A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="2010">
   <si>
     <t>[Available While Supplies Last]</t>
   </si>
@@ -6080,17 +6080,82 @@
   <si>
     <t>Conventional Cab w/19000, 21000, 23000 lb Taperleaf Springs (EXC Low Profile Vehicle) OEM #'S 15123676, 15174898, 15588554, 15887728, 19152843, 22064230, 88982682, 22064233, 88982684</t>
   </si>
+  <si>
+    <t>COLOR: ALUMINUM</t>
+  </si>
+  <si>
+    <t>RESERVOIR: REMOTE</t>
+  </si>
+  <si>
+    <t>SERIES: PERFORMANCE</t>
+  </si>
+  <si>
+    <t>SIZE: 2.0</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: XJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: MJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: ZJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: WJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: JT</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: JL</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: JK</t>
+  </si>
+  <si>
+    <t>Body Type: Extended Cab Pickup</t>
+  </si>
+  <si>
+    <t>Body Type: Standard Cab Pickup</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis</t>
+  </si>
+  <si>
+    <t>Fits cab &amp; chassis models.</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis - Conventional</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis - Crew Cab</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis - Extended Cab</t>
+  </si>
+  <si>
+    <t>Lift: 0-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6448,271 +6513,272 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6993,10 +7059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2018"/>
+  <dimension ref="A1:B2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1925" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1939" sqref="B1939"/>
+    <sheetView tabSelected="1" topLeftCell="A2024" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2042" sqref="B2042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23149,6 +23215,174 @@
         <v>1989</v>
       </c>
     </row>
+    <row r="2019" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2019" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2019" s="19" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2020" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2020" s="19" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2021" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2021" s="19" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2022" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2022" s="19" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2023" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2023" s="19" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2024" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2024" s="19" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2025" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2025" s="19" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2026" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2026" s="19" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2027" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2027" s="19" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2028" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2028" s="19" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2029" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2029" s="19" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2030" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2030" s="19" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2031" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2031" s="19" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2032" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2032" s="19" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2033" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2033" s="19" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2034" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2034" s="19" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2035" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2035" s="19" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2036" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2036" s="19" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2037" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2037" s="19" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2038" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2038" s="19" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2039" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2039" s="19" t="s">
+        <v>2009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
